--- a/data/p_urbanization.xlsx
+++ b/data/p_urbanization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\research_module\RM-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F0C205-9C8F-4615-A200-3486FC70BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65CD415-96F5-4173-B1FB-8B39E8F24884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="810" windowWidth="8710" windowHeight="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Development relevance</t>
   </si>
@@ -156,6 +156,33 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Greece</t>
   </si>
 </sst>
 </file>
@@ -495,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1109,6 +1136,294 @@
       </c>
       <c r="J19">
         <v>85.680999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>73.384</v>
+      </c>
+      <c r="C20">
+        <v>73.477000000000004</v>
+      </c>
+      <c r="D20">
+        <v>73.569999999999993</v>
+      </c>
+      <c r="E20">
+        <v>73.674999999999997</v>
+      </c>
+      <c r="F20">
+        <v>73.792000000000002</v>
+      </c>
+      <c r="G20">
+        <v>73.921000000000006</v>
+      </c>
+      <c r="H20">
+        <v>74.061000000000007</v>
+      </c>
+      <c r="I20">
+        <v>74.213999999999999</v>
+      </c>
+      <c r="J20">
+        <v>74.376999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>62.34</v>
+      </c>
+      <c r="C21">
+        <v>62.537999999999997</v>
+      </c>
+      <c r="D21">
+        <v>62.737000000000002</v>
+      </c>
+      <c r="E21">
+        <v>62.947000000000003</v>
+      </c>
+      <c r="F21">
+        <v>63.17</v>
+      </c>
+      <c r="G21">
+        <v>63.405000000000001</v>
+      </c>
+      <c r="H21">
+        <v>63.652999999999999</v>
+      </c>
+      <c r="I21">
+        <v>63.911999999999999</v>
+      </c>
+      <c r="J21">
+        <v>64.183000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>55.923000000000002</v>
+      </c>
+      <c r="C22">
+        <v>56.155000000000001</v>
+      </c>
+      <c r="D22">
+        <v>56.402999999999999</v>
+      </c>
+      <c r="E22">
+        <v>56.667000000000002</v>
+      </c>
+      <c r="F22">
+        <v>56.947000000000003</v>
+      </c>
+      <c r="G22">
+        <v>57.241999999999997</v>
+      </c>
+      <c r="H22">
+        <v>57.552999999999997</v>
+      </c>
+      <c r="I22">
+        <v>57.878</v>
+      </c>
+      <c r="J22">
+        <v>58.219000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>67.031000000000006</v>
+      </c>
+      <c r="C23">
+        <v>66.945999999999998</v>
+      </c>
+      <c r="D23">
+        <v>66.881</v>
+      </c>
+      <c r="E23">
+        <v>66.835999999999999</v>
+      </c>
+      <c r="F23">
+        <v>66.81</v>
+      </c>
+      <c r="G23">
+        <v>66.805000000000007</v>
+      </c>
+      <c r="H23">
+        <v>66.820999999999998</v>
+      </c>
+      <c r="I23">
+        <v>66.855999999999995</v>
+      </c>
+      <c r="J23">
+        <v>66.911000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>70.227000000000004</v>
+      </c>
+      <c r="C24">
+        <v>70.5</v>
+      </c>
+      <c r="D24">
+        <v>70.778999999999996</v>
+      </c>
+      <c r="E24">
+        <v>71.061999999999998</v>
+      </c>
+      <c r="F24">
+        <v>71.350999999999999</v>
+      </c>
+      <c r="G24">
+        <v>71.644000000000005</v>
+      </c>
+      <c r="H24">
+        <v>71.941999999999993</v>
+      </c>
+      <c r="I24">
+        <v>72.245000000000005</v>
+      </c>
+      <c r="J24">
+        <v>72.552000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>55.582999999999998</v>
+      </c>
+      <c r="C25">
+        <v>55.695999999999998</v>
+      </c>
+      <c r="D25">
+        <v>55.81</v>
+      </c>
+      <c r="E25">
+        <v>55.942</v>
+      </c>
+      <c r="F25">
+        <v>56.091999999999999</v>
+      </c>
+      <c r="G25">
+        <v>56.26</v>
+      </c>
+      <c r="H25">
+        <v>56.445999999999998</v>
+      </c>
+      <c r="I25">
+        <v>56.651000000000003</v>
+      </c>
+      <c r="J25">
+        <v>56.872999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>73.695999999999998</v>
+      </c>
+      <c r="C26">
+        <v>73.718000000000004</v>
+      </c>
+      <c r="D26">
+        <v>73.739000000000004</v>
+      </c>
+      <c r="E26">
+        <v>73.760999999999996</v>
+      </c>
+      <c r="F26">
+        <v>73.796999999999997</v>
+      </c>
+      <c r="G26">
+        <v>73.849000000000004</v>
+      </c>
+      <c r="H26">
+        <v>73.915000000000006</v>
+      </c>
+      <c r="I26">
+        <v>73.995999999999995</v>
+      </c>
+      <c r="J26">
+        <v>74.091999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>80.691999999999993</v>
+      </c>
+      <c r="C27">
+        <v>81.090999999999994</v>
+      </c>
+      <c r="D27">
+        <v>81.484999999999999</v>
+      </c>
+      <c r="E27">
+        <v>81.870999999999995</v>
+      </c>
+      <c r="F27">
+        <v>82.248000000000005</v>
+      </c>
+      <c r="G27">
+        <v>82.616</v>
+      </c>
+      <c r="H27">
+        <v>82.974000000000004</v>
+      </c>
+      <c r="I27">
+        <v>83.322999999999993</v>
+      </c>
+      <c r="J27">
+        <v>83.664000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>77.701999999999998</v>
+      </c>
+      <c r="C28">
+        <v>78.046000000000006</v>
+      </c>
+      <c r="D28">
+        <v>78.387</v>
+      </c>
+      <c r="E28">
+        <v>78.724000000000004</v>
+      </c>
+      <c r="F28">
+        <v>79.058000000000007</v>
+      </c>
+      <c r="G28">
+        <v>79.388000000000005</v>
+      </c>
+      <c r="H28">
+        <v>79.715000000000003</v>
+      </c>
+      <c r="I28">
+        <v>80.037999999999997</v>
+      </c>
+      <c r="J28">
+        <v>80.356999999999999</v>
       </c>
     </row>
   </sheetData>
